--- a/perl_operations/new_excel.xlsx
+++ b/perl_operations/new_excel.xlsx
@@ -19,73 +19,156 @@
     <t>boot_only2_CFG0</t>
   </si>
   <si>
-    <t>GT_ROOT/source/rtl/cfg_env/dut/sm/gk_tests/boot_only2_CFG0/boot_only2.gsf -dut sm -soc_model soc --context MEDIA_LPM_SD -T o3c.vpi.sipdfx.gtsynth.default64 -testlib -pavpcPavpEnable false -enableFeature :xefiSupport  qq- -grits_opt -qq -DpavpEnable=false qq-  -testlib_opt -qq -chkpass  -disable_unit_clkgt qq- -testlib- -noclean -seed 0x1 | tee log.txt</t>
+    <t>GT_ROOT/source/rtl/cfg_env/dut/sm/gk_tests/boot_only2_CFG0/
+boot_only2.gsf -dut sm -soc_model soc --context
+MEDIA_LPM_SD -T o3c.vpi.sipdfx.gtsynth.default64 -testlib
+-pavpcPavpEnable false -enableFeature :xefiSupport  qq-
+-grits_opt -qq -DpavpEnable=false qq-  -testlib_opt -qq
+-chkpass  -disable_unit_clkgt qq- -testlib- -noclean -seed
+0x1 | tee log.txt</t>
   </si>
   <si>
     <t>Dec_PicParameterSet_0_CFG0</t>
   </si>
   <si>
-    <t>GT_ROOT/source/rtl/cfg_env/dut/sm/gk_tests/Dec_PicParameterSet_0_CFG0/Dec_PicParameterSet_0.gsf -dut sm -soc_model soc --context MEDIA_LPM_SD -T o3c.vpi.sipdfx.gtsynth.default64 -testlib -fulsim_opt -qq  -pavpcPavpEnable false -enableFeature :xefiSupport  qq- -grits_opt -qq -DpavpEnable=false qq-  -testlib_opt -qq -chkpass  -disable_unit_clkgt qq- -testlib- -noclean -seed 0x1 | tee log.txt</t>
+    <t>GT_ROOT/source/rtl/cfg_env/dut/sm/gk_tests/Dec_PicParameter
+Set_0_CFG0/Dec_PicParameterSet_0.gsf -dut sm -soc_model soc
+--context MEDIA_LPM_SD -T o3c.vpi.sipdfx.gtsynth.default64
+-testlib -fulsim_opt -qq  -pavpcPavpEnable false
+-enableFeature :xefiSupport  qq- -grits_opt -qq
+-DpavpEnable=false qq-	-testlib_opt -qq -chkpass 
+-disable_unit_clkgt qq- -testlib- -noclean -seed 0x1 | tee
+log.txt</t>
   </si>
   <si>
     <t>Huc_hevc_SF_rev0_HM10_glass_32x32_LCU_16_I_no_DBLK_no_SAO_1f_CFG0</t>
   </si>
   <si>
-    <t>GT_ROOT/source/rtl/cfg_env/dut/sm/gk_tests/Huc_hevc_SF_rev0_HM10_glass_32x32_LCU_16_I_no_DBLK_no_SAO_1f_CFG0/Huc_hevc_SF_rev0_HM10_glass_32x32_LCU_16_I_no_DBLK_no_SAO_1f.gsf -dut sm -soc_model soc --context MEDIA_LPM_SD -T o3c.vpi.sipdfx.gtsynth.default64 -testlib -fulsim_opt -qq -bypassHuCAuth -pavpcPavpEnable false -enableFeature :xefiSupport  qq- -grits_opt -qq -DpavpEnable=false qq-  -testlib_opt -qq -chkpass  -disable_unit_clkgt -gsc_fuseoff qq- -testlib- -noclean -seed 0x1 | tee log.txt</t>
+    <t>GT_ROOT/source/rtl/cfg_env/dut/sm/gk_tests/Huc_hevc_SF_rev0
+_HM10_glass_32x32_LCU_16_I_no_DBLK_no_SAO_1f_CFG0/Huc_hevc_
+SF_rev0_HM10_glass_32x32_LCU_16_I_no_DBLK_no_SAO_1f.gsf
+-dut sm -soc_model soc --context MEDIA_LPM_SD -T
+o3c.vpi.sipdfx.gtsynth.default64 -testlib -fulsim_opt -qq
+-bypassHuCAuth -pavpcPavpEnable false -enableFeature
+:xefiSupport  qq- -grits_opt -qq -DpavpEnable=false qq- 
+-testlib_opt -qq -chkpass  -disable_unit_clkgt -gsc_fuseoff
+qq- -testlib- -noclean -seed 0x1 | tee log.txt</t>
   </si>
   <si>
     <t>msiEnabledInterrupts_CFG0</t>
   </si>
   <si>
-    <t>GT_ROOT/source/rtl/cfg_env/dut/sm/gk_tests/msiEnabledInterrupts_CFG0/msiEnabledInterrupts.gsf -dut sm -soc_model soc --context MEDIA_LPM_SD -T o3c.vpi.sipdfx.gtsynth.default64 -testlib -fulsim_opt -qq -pavpcPavpEnable false -enableFeature :xefiSupport qq- -grits_opt -qq -DpavpEnable=false qq-  -testlib_opt -qq -enable_unit_clkgt -gsc_disable -gsc_fuseoff qq- -testlib- -noclean -seed 0x1 | tee log.txt</t>
+    <t>GT_ROOT/source/rtl/cfg_env/dut/sm/gk_tests/msiEnabledInterr
+upts_CFG0/msiEnabledInterrupts.gsf -dut sm -soc_model soc
+--context MEDIA_LPM_SD -T o3c.vpi.sipdfx.gtsynth.default64
+-testlib -fulsim_opt -qq -pavpcPavpEnable false
+-enableFeature :xefiSupport qq- -grits_opt -qq
+-DpavpEnable=false qq-	-testlib_opt -qq -enable_unit_clkgt
+-gsc_disable -gsc_fuseoff qq- -testlib- -noclean -seed 0x1
+| tee log.txt</t>
   </si>
   <si>
     <t>gamBasic_CFG335</t>
   </si>
   <si>
-    <t>GT_ROOT/source/rtl/cfg_env/dut/sm/gk_tests/gamBasic_CFG335/gamBasic.gsf -dut sm -soc_model soc --context MEDIA_LPM_SD -T o3c.vpi.sipdfx.gtsynth.default64 -testlib -fulsim_opt -qq -pavpcPavpEnable false -enableFeature :xefiSupport qq- -grits_opt -qq -DpavpEnable=false qq- -testlib_opt -qq -enable_unit_clkgt -gsc_fuseoff -gsc_disable -hwmats_enable qq- -testlib- -noclean -seed 0x1 | tee log.txt</t>
+    <t>GT_ROOT/source/rtl/cfg_env/dut/sm/gk_tests/gamBasic_CFG335/
+gamBasic.gsf -dut sm -soc_model soc --context MEDIA_LPM_SD
+-T o3c.vpi.sipdfx.gtsynth.default64 -testlib -fulsim_opt
+-qq -pavpcPavpEnable false -enableFeature :xefiSupport qq-
+-grits_opt -qq -DpavpEnable=false qq- -testlib_opt -qq
+-enable_unit_clkgt -gsc_fuseoff -gsc_disable -hwmats_enable
+qq- -testlib- -noclean -seed 0x1 | tee log.txt</t>
   </si>
   <si>
     <t>MocsPat_CFG6</t>
   </si>
   <si>
-    <t>GT_ROOT/source/rtl/cfg_env/dut/sm/gk_tests/MocsPat_CFG6/MocsPat.gsf -dut sm -soc_model soc --context MEDIA_LPM_SD -T o3c.vpi.sipdfx.gtsynth.default64 -testlib -grits_opt -qq -DpavpEnable=false qq-  -fulsim_opt -qq -pavpcPavpEnable false -enableFeature :xefiSupport qq- -testlib_opt -qq -enable_dop_clkgt -enable_unit_clkgt -gsc_disable -gsc_fuseoff qq- -seed 1 -testlib- -noclean -seed 0x1 | tee log.txt</t>
+    <t>GT_ROOT/source/rtl/cfg_env/dut/sm/gk_tests/MocsPat_CFG6/Moc
+sPat.gsf -dut sm -soc_model soc --context MEDIA_LPM_SD -T
+o3c.vpi.sipdfx.gtsynth.default64 -testlib -grits_opt -qq
+-DpavpEnable=false qq-	-fulsim_opt -qq -pavpcPavpEnable
+false -enableFeature :xefiSupport qq- -testlib_opt -qq
+-enable_dop_clkgt -enable_unit_clkgt -gsc_disable
+-gsc_fuseoff qq- -seed 1 -testlib- -noclean -seed 0x1 | tee
+log.txt</t>
   </si>
   <si>
     <t>MocsPat_CFG43</t>
   </si>
   <si>
-    <t>GT_ROOT/source/rtl/cfg_env/dut/sm/gk_tests/MocsPat_CFG43/MocsPat.gsf -dut sm -soc_model soc --context MEDIA_LPM_SD -T o3c.vpi.sipdfx.gtsynth.default64 -testlib -grits_opt -qq -DpavpEnable=false qq-  -fulsim_opt -qq -pavpcPavpEnable false -enableFeature :xefiSupport qq- -testlib_opt -qq -Enable_Random_Snoop -enable_dop_clkgt -enable_unit_clkgt -gsc_disable -gsc_fuseoff qq- -seed 1 -testlib- -noclean -seed 0x1 | tee log.txt</t>
+    <t>GT_ROOT/source/rtl/cfg_env/dut/sm/gk_tests/MocsPat_CFG43/Mo
+csPat.gsf -dut sm -soc_model soc --context MEDIA_LPM_SD -T
+o3c.vpi.sipdfx.gtsynth.default64 -testlib -grits_opt -qq
+-DpavpEnable=false qq-	-fulsim_opt -qq -pavpcPavpEnable
+false -enableFeature :xefiSupport qq- -testlib_opt -qq
+-Enable_Random_Snoop -enable_dop_clkgt -enable_unit_clkgt
+-gsc_disable -gsc_fuseoff qq- -seed 1 -testlib- -noclean
+-seed 0x1 | tee log.txt</t>
   </si>
   <si>
     <t>MocsPat_CFG33</t>
   </si>
   <si>
-    <t>GT_ROOT/source/rtl/cfg_env/dut/sm/gk_tests/MocsPat_CFG33/MocsPat.gsf -dut sm -soc_model soc --context MEDIA_LPM_SD -T o3c.vpi.sipdfx.gtsynth.default64 -testlib -grits_opt -qq -DpavpEnable=false qq- -fulsim_opt -qq -pavpcPavpEnable false -enableFeature :xefiSupport qq- -testlib_opt -qq -enable_dop_clkgt -enable_unit_clkgt -gsc_disable -gsc_fuseoff qq- -seed 1 -testlib- -noclean -seed 0x1 | tee log.txt</t>
+    <t>GT_ROOT/source/rtl/cfg_env/dut/sm/gk_tests/MocsPat_CFG33/Mo
+csPat.gsf -dut sm -soc_model soc --context MEDIA_LPM_SD -T
+o3c.vpi.sipdfx.gtsynth.default64 -testlib -grits_opt -qq
+-DpavpEnable=false qq- -fulsim_opt -qq -pavpcPavpEnable
+false -enableFeature :xefiSupport qq- -testlib_opt -qq
+-enable_dop_clkgt -enable_unit_clkgt -gsc_disable
+-gsc_fuseoff qq- -seed 1 -testlib- -noclean -seed 0x1 | tee
+log.txt</t>
   </si>
   <si>
     <t>host_gttmmadr_gtt_CFG1</t>
   </si>
   <si>
-    <t>GT_ROOT/source/rtl/cfg_env/dut/sm/gk_tests/host_gttmmadr_gtt_CFG1/host_gttmmadr_gtt.gsf -dut sm -soc_model soc --context MEDIA_LPM_SD -T o3c.vpi.sipdfx.gtsynth.default64 -testlib -fulsim_opt -qq -pavpcPavpEnable false -enableFeature :xefiSupport qq- -grits_opt -qq -DpavpEnable=false qq- -testlib- -noclean -seed 0x1 | tee log.txt</t>
+    <t>GT_ROOT/source/rtl/cfg_env/dut/sm/gk_tests/host_gttmmadr_gt
+t_CFG1/host_gttmmadr_gtt.gsf -dut sm -soc_model soc
+--context MEDIA_LPM_SD -T o3c.vpi.sipdfx.gtsynth.default64
+-testlib -fulsim_opt -qq -pavpcPavpEnable false
+-enableFeature :xefiSupport qq- -grits_opt -qq
+-DpavpEnable=false qq- -testlib- -noclean -seed 0x1 | tee
+log.txt</t>
   </si>
   <si>
     <t>gam_single_walker_CFG10</t>
   </si>
   <si>
-    <t>GT_ROOT/source/rtl/cfg_env/dut/sm/gk_tests/gam_single_walker_CFG10/gam_single_walker.gsf -dut sm -soc_model soc --context MEDIA_LPM_SD -T o3c.vpi.sipdfx.gtsynth.default64 -testlib -fulsim_opt -qq -pavpcPavpEnable false -enableFeature :xefiSupport qq- -grits_opt -qq -DpavpEnable=false -DsriovEnable=true qq-                                           -testlib_opt -qq -enable_unit_clkgt -gsc_disable -gsc_fuseoff qq- -testlib- -noclean -seed 0x1 | tee log.txt</t>
+    <t>GT_ROOT/source/rtl/cfg_env/dut/sm/gk_tests/gam_single_walke
+r_CFG10/gam_single_walker.gsf -dut sm -soc_model soc
+--context MEDIA_LPM_SD -T o3c.vpi.sipdfx.gtsynth.default64
+-testlib -fulsim_opt -qq -pavpcPavpEnable false
+-enableFeature :xefiSupport qq- -grits_opt -qq
+-DpavpEnable=false -DsriovEnable=true qq-		   
+			-testlib_opt -qq -enable_unit_clkgt
+-gsc_disable -gsc_fuseoff qq- -testlib- -noclean -seed 0x1
+| tee log.txt</t>
   </si>
   <si>
     <t>gsc_boot_fw_load_CFG0</t>
   </si>
   <si>
-    <t>GT_ROOT/source/rtl/cfg_env/dut/sm/gk_tests/gsc_boot_fw_load_CFG0/gsc_boot_fw_load.gsf -dut sm -soc_model soc --context MEDIA_LPM_SD -T o3c.vpi.sipdfx.gtsynth.default64 -testlib -fulsim_opt -qq -PAVPFuseCsmeModeEnable false  -PAVPFuseKcrSlaveDisable false -PAVPFuseBusValue 7 qq- -grits_opt -qq -DpavpEnable=true -DgscEnable=true -DgscFwPagingEnable=true qq-  -testlib_opt -qq -gsc_enable -enable_pavp_production_mode -fuse_gtdis_en qq- -enable_pavp -testlib- -noclean -seed 0x1 | tee log.txt</t>
+    <t>GT_ROOT/source/rtl/cfg_env/dut/sm/gk_tests/gsc_boot_fw_load
+_CFG0/gsc_boot_fw_load.gsf -dut sm -soc_model soc --context
+MEDIA_LPM_SD -T o3c.vpi.sipdfx.gtsynth.default64 -testlib
+-fulsim_opt -qq -PAVPFuseCsmeModeEnable false 
+-PAVPFuseKcrSlaveDisable false -PAVPFuseBusValue 7 qq-
+-grits_opt -qq -DpavpEnable=true -DgscEnable=true
+-DgscFwPagingEnable=true qq-  -testlib_opt -qq -gsc_enable
+-enable_pavp_production_mode -fuse_gtdis_en qq-
+-enable_pavp -testlib- -noclean -seed 0x1 | tee log.txt</t>
   </si>
   <si>
     <t>GuC_DMA_GTTPPGTT_CFG0</t>
   </si>
   <si>
-    <t>GT_ROOT/source/rtl/cfg_env/dut/sm/gk_tests/GuC_DMA_GTTPPGTT_CFG0/GuC_DMA_GTTPPGTT.gsf -dut sm -soc_model soc --context MEDIA_LPM_SD -T o3c.vpi.sipdfx.gtsynth.default64 -testlib -fulsim_opt -qq  -pavpcPavpEnable false -enableFeature :xefiSupport  qq- -grits_opt -qq -DpavpEnable=false qq-  -testlib_opt -qq -chkpass  -disable_unit_clkgt qq- -testlib- -noclean -seed 0x1 | tee log.txt</t>
+    <t>GT_ROOT/source/rtl/cfg_env/dut/sm/gk_tests/GuC_DMA_GTTPPGTT
+_CFG0/GuC_DMA_GTTPPGTT.gsf -dut sm -soc_model soc --context
+MEDIA_LPM_SD -T o3c.vpi.sipdfx.gtsynth.default64 -testlib
+-fulsim_opt -qq  -pavpcPavpEnable false -enableFeature
+:xefiSupport  qq- -grits_opt -qq -DpavpEnable=false qq- 
+-testlib_opt -qq -chkpass  -disable_unit_clkgt qq-
+-testlib- -noclean -seed 0x1 | tee log.txt</t>
   </si>
 </sst>
 </file>

--- a/perl_operations/new_excel.xlsx
+++ b/perl_operations/new_excel.xlsx
@@ -14,161 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>boot_only2_CFG0</t>
-  </si>
-  <si>
-    <t>GT_ROOT/source/rtl/cfg_env/dut/sm/gk_tests/boot_only2_CFG0/
-boot_only2.gsf -dut sm -soc_model soc --context
-MEDIA_LPM_SD -T o3c.vpi.sipdfx.gtsynth.default64 -testlib
--pavpcPavpEnable false -enableFeature :xefiSupport  qq-
--grits_opt -qq -DpavpEnable=false qq-  -testlib_opt -qq
--chkpass  -disable_unit_clkgt qq- -testlib- -noclean -seed
-0x1 | tee log.txt</t>
-  </si>
-  <si>
-    <t>Dec_PicParameterSet_0_CFG0</t>
-  </si>
-  <si>
-    <t>GT_ROOT/source/rtl/cfg_env/dut/sm/gk_tests/Dec_PicParameter
-Set_0_CFG0/Dec_PicParameterSet_0.gsf -dut sm -soc_model soc
---context MEDIA_LPM_SD -T o3c.vpi.sipdfx.gtsynth.default64
--testlib -fulsim_opt -qq  -pavpcPavpEnable false
--enableFeature :xefiSupport  qq- -grits_opt -qq
--DpavpEnable=false qq-	-testlib_opt -qq -chkpass 
--disable_unit_clkgt qq- -testlib- -noclean -seed 0x1 | tee
-log.txt</t>
-  </si>
-  <si>
-    <t>Huc_hevc_SF_rev0_HM10_glass_32x32_LCU_16_I_no_DBLK_no_SAO_1f_CFG0</t>
-  </si>
-  <si>
-    <t>GT_ROOT/source/rtl/cfg_env/dut/sm/gk_tests/Huc_hevc_SF_rev0
-_HM10_glass_32x32_LCU_16_I_no_DBLK_no_SAO_1f_CFG0/Huc_hevc_
-SF_rev0_HM10_glass_32x32_LCU_16_I_no_DBLK_no_SAO_1f.gsf
--dut sm -soc_model soc --context MEDIA_LPM_SD -T
-o3c.vpi.sipdfx.gtsynth.default64 -testlib -fulsim_opt -qq
--bypassHuCAuth -pavpcPavpEnable false -enableFeature
-:xefiSupport  qq- -grits_opt -qq -DpavpEnable=false qq- 
--testlib_opt -qq -chkpass  -disable_unit_clkgt -gsc_fuseoff
-qq- -testlib- -noclean -seed 0x1 | tee log.txt</t>
-  </si>
-  <si>
-    <t>msiEnabledInterrupts_CFG0</t>
-  </si>
-  <si>
-    <t>GT_ROOT/source/rtl/cfg_env/dut/sm/gk_tests/msiEnabledInterr
-upts_CFG0/msiEnabledInterrupts.gsf -dut sm -soc_model soc
---context MEDIA_LPM_SD -T o3c.vpi.sipdfx.gtsynth.default64
--testlib -fulsim_opt -qq -pavpcPavpEnable false
--enableFeature :xefiSupport qq- -grits_opt -qq
--DpavpEnable=false qq-	-testlib_opt -qq -enable_unit_clkgt
--gsc_disable -gsc_fuseoff qq- -testlib- -noclean -seed 0x1
-| tee log.txt</t>
-  </si>
-  <si>
-    <t>gamBasic_CFG335</t>
-  </si>
-  <si>
-    <t>GT_ROOT/source/rtl/cfg_env/dut/sm/gk_tests/gamBasic_CFG335/
-gamBasic.gsf -dut sm -soc_model soc --context MEDIA_LPM_SD
--T o3c.vpi.sipdfx.gtsynth.default64 -testlib -fulsim_opt
--qq -pavpcPavpEnable false -enableFeature :xefiSupport qq-
--grits_opt -qq -DpavpEnable=false qq- -testlib_opt -qq
--enable_unit_clkgt -gsc_fuseoff -gsc_disable -hwmats_enable
-qq- -testlib- -noclean -seed 0x1 | tee log.txt</t>
-  </si>
-  <si>
-    <t>MocsPat_CFG6</t>
-  </si>
-  <si>
-    <t>GT_ROOT/source/rtl/cfg_env/dut/sm/gk_tests/MocsPat_CFG6/Moc
-sPat.gsf -dut sm -soc_model soc --context MEDIA_LPM_SD -T
-o3c.vpi.sipdfx.gtsynth.default64 -testlib -grits_opt -qq
--DpavpEnable=false qq-	-fulsim_opt -qq -pavpcPavpEnable
-false -enableFeature :xefiSupport qq- -testlib_opt -qq
--enable_dop_clkgt -enable_unit_clkgt -gsc_disable
--gsc_fuseoff qq- -seed 1 -testlib- -noclean -seed 0x1 | tee
-log.txt</t>
-  </si>
-  <si>
-    <t>MocsPat_CFG43</t>
-  </si>
-  <si>
-    <t>GT_ROOT/source/rtl/cfg_env/dut/sm/gk_tests/MocsPat_CFG43/Mo
-csPat.gsf -dut sm -soc_model soc --context MEDIA_LPM_SD -T
-o3c.vpi.sipdfx.gtsynth.default64 -testlib -grits_opt -qq
--DpavpEnable=false qq-	-fulsim_opt -qq -pavpcPavpEnable
-false -enableFeature :xefiSupport qq- -testlib_opt -qq
--Enable_Random_Snoop -enable_dop_clkgt -enable_unit_clkgt
--gsc_disable -gsc_fuseoff qq- -seed 1 -testlib- -noclean
--seed 0x1 | tee log.txt</t>
-  </si>
-  <si>
-    <t>MocsPat_CFG33</t>
-  </si>
-  <si>
-    <t>GT_ROOT/source/rtl/cfg_env/dut/sm/gk_tests/MocsPat_CFG33/Mo
-csPat.gsf -dut sm -soc_model soc --context MEDIA_LPM_SD -T
-o3c.vpi.sipdfx.gtsynth.default64 -testlib -grits_opt -qq
--DpavpEnable=false qq- -fulsim_opt -qq -pavpcPavpEnable
-false -enableFeature :xefiSupport qq- -testlib_opt -qq
--enable_dop_clkgt -enable_unit_clkgt -gsc_disable
--gsc_fuseoff qq- -seed 1 -testlib- -noclean -seed 0x1 | tee
-log.txt</t>
-  </si>
-  <si>
-    <t>host_gttmmadr_gtt_CFG1</t>
-  </si>
-  <si>
-    <t>GT_ROOT/source/rtl/cfg_env/dut/sm/gk_tests/host_gttmmadr_gt
-t_CFG1/host_gttmmadr_gtt.gsf -dut sm -soc_model soc
---context MEDIA_LPM_SD -T o3c.vpi.sipdfx.gtsynth.default64
--testlib -fulsim_opt -qq -pavpcPavpEnable false
--enableFeature :xefiSupport qq- -grits_opt -qq
--DpavpEnable=false qq- -testlib- -noclean -seed 0x1 | tee
-log.txt</t>
-  </si>
-  <si>
-    <t>gam_single_walker_CFG10</t>
-  </si>
-  <si>
-    <t>GT_ROOT/source/rtl/cfg_env/dut/sm/gk_tests/gam_single_walke
-r_CFG10/gam_single_walker.gsf -dut sm -soc_model soc
---context MEDIA_LPM_SD -T o3c.vpi.sipdfx.gtsynth.default64
--testlib -fulsim_opt -qq -pavpcPavpEnable false
--enableFeature :xefiSupport qq- -grits_opt -qq
--DpavpEnable=false -DsriovEnable=true qq-		   
-			-testlib_opt -qq -enable_unit_clkgt
--gsc_disable -gsc_fuseoff qq- -testlib- -noclean -seed 0x1
-| tee log.txt</t>
-  </si>
-  <si>
-    <t>gsc_boot_fw_load_CFG0</t>
-  </si>
-  <si>
-    <t>GT_ROOT/source/rtl/cfg_env/dut/sm/gk_tests/gsc_boot_fw_load
-_CFG0/gsc_boot_fw_load.gsf -dut sm -soc_model soc --context
-MEDIA_LPM_SD -T o3c.vpi.sipdfx.gtsynth.default64 -testlib
--fulsim_opt -qq -PAVPFuseCsmeModeEnable false 
--PAVPFuseKcrSlaveDisable false -PAVPFuseBusValue 7 qq-
--grits_opt -qq -DpavpEnable=true -DgscEnable=true
--DgscFwPagingEnable=true qq-  -testlib_opt -qq -gsc_enable
--enable_pavp_production_mode -fuse_gtdis_en qq-
--enable_pavp -testlib- -noclean -seed 0x1 | tee log.txt</t>
-  </si>
-  <si>
-    <t>GuC_DMA_GTTPPGTT_CFG0</t>
-  </si>
-  <si>
-    <t>GT_ROOT/source/rtl/cfg_env/dut/sm/gk_tests/GuC_DMA_GTTPPGTT
-_CFG0/GuC_DMA_GTTPPGTT.gsf -dut sm -soc_model soc --context
-MEDIA_LPM_SD -T o3c.vpi.sipdfx.gtsynth.default64 -testlib
--fulsim_opt -qq  -pavpcPavpEnable false -enableFeature
-:xefiSupport  qq- -grits_opt -qq -DpavpEnable=false qq- 
--testlib_opt -qq -chkpass  -disable_unit_clkgt qq-
--testlib- -noclean -seed 0x1 | tee log.txt</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Geeks For Geeks</t>
+  </si>
+  <si>
+    <t>Perl|Reading Files in Excel</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>q</t>
   </si>
 </sst>
 </file>
@@ -500,106 +369,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="D3">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="E7">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="8" spans="1:5">
+      <c r="E8">
         <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
